--- a/data/JD_OPEN导入账单.xlsx
+++ b/data/JD_OPEN导入账单.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="70">
   <si>
     <t>订单完成时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,11 +237,7 @@
     <t>1828972</t>
   </si>
   <si>
-    <t>XIMALAYA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XIMALAYA1</t>
+    <t>JD_OPEN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -250,7 +246,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -303,10 +299,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -624,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
